--- a/2-Empirical-Evidence/raw_data/North_Carolina.xlsx
+++ b/2-Empirical-Evidence/raw_data/North_Carolina.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN370010000000003</t>
@@ -1738,10 +1754,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>4.0</v>
@@ -1836,10 +1864,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>2459.0</v>
@@ -1934,10 +1972,20 @@
       <c r="AF6" t="n" s="8">
         <v>5579.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>3952.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>3119.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>2914.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>59078.0</v>
@@ -2032,10 +2080,20 @@
       <c r="AF7" t="n" s="8">
         <v>73052.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>76817.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>80446.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>82920.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>61537.0</v>
@@ -2130,10 +2188,20 @@
       <c r="AF8" t="n" s="8">
         <v>78631.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>80769.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>83565.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>85834.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>3.7</v>
@@ -2228,10 +2296,20 @@
       <c r="AF9" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>589.0</v>
@@ -2326,10 +2404,20 @@
       <c r="AF10" t="n" s="8">
         <v>1263.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>743.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>583.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>580.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>15468.0</v>
@@ -2424,10 +2512,20 @@
       <c r="AF11" t="n" s="8">
         <v>15797.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>16577.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>17347.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>17433.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>16057.0</v>
@@ -2522,10 +2620,20 @@
       <c r="AF12" t="n" s="8">
         <v>17060.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>17320.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>17930.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>18013.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>3.3</v>
@@ -2620,10 +2728,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>158.0</v>
@@ -2718,10 +2836,20 @@
       <c r="AF14" t="n" s="8">
         <v>295.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>178.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>191.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>4697.0</v>
@@ -2816,10 +2944,20 @@
       <c r="AF15" t="n" s="8">
         <v>3795.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>4013.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>4284.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>4075.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>4855.0</v>
@@ -2914,10 +3052,20 @@
       <c r="AF16" t="n" s="8">
         <v>4090.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>4213.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>4462.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>4266.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>4.3</v>
@@ -3012,10 +3160,20 @@
       <c r="AF17" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>502.0</v>
@@ -3110,10 +3268,20 @@
       <c r="AF18" t="n" s="8">
         <v>761.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>643.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>453.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>414.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>11261.0</v>
@@ -3208,10 +3376,20 @@
       <c r="AF19" t="n" s="8">
         <v>9306.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>9409.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>9791.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>9849.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>11763.0</v>
@@ -3306,10 +3484,20 @@
       <c r="AF20" t="n" s="8">
         <v>10067.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>10052.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>10244.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>10263.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.7</v>
@@ -3404,10 +3592,20 @@
       <c r="AF21" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>653.0</v>
@@ -3502,10 +3700,20 @@
       <c r="AF22" t="n" s="8">
         <v>753.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>512.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>441.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>385.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>10738.0</v>
@@ -3600,10 +3808,20 @@
       <c r="AF23" t="n" s="8">
         <v>11445.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>12039.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>12444.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>12435.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>11391.0</v>
@@ -3698,10 +3916,20 @@
       <c r="AF24" t="n" s="8">
         <v>12198.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>12551.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>12885.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>12820.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.1</v>
@@ -3796,10 +4024,20 @@
       <c r="AF25" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>444.0</v>
@@ -3894,10 +4132,20 @@
       <c r="AF26" t="n" s="8">
         <v>440.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>299.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>254.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>236.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>6871.0</v>
@@ -3992,10 +4240,20 @@
       <c r="AF27" t="n" s="8">
         <v>6627.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>7026.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>7427.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>7562.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>7315.0</v>
@@ -4090,10 +4348,20 @@
       <c r="AF28" t="n" s="8">
         <v>7067.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>7325.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>7681.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>7798.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>4.8</v>
@@ -4188,10 +4456,20 @@
       <c r="AF29" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>996.0</v>
@@ -4286,10 +4564,20 @@
       <c r="AF30" t="n" s="8">
         <v>1175.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>957.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>793.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>784.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>19585.0</v>
@@ -4384,10 +4672,20 @@
       <c r="AF31" t="n" s="8">
         <v>17598.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>18426.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>18923.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>18592.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>20581.0</v>
@@ -4482,10 +4780,20 @@
       <c r="AF32" t="n" s="8">
         <v>18773.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>19383.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>19716.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>19376.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>5.2</v>
@@ -4580,10 +4888,20 @@
       <c r="AF33" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>470.0</v>
@@ -4678,10 +4996,20 @@
       <c r="AF34" t="n" s="8">
         <v>463.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>432.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>308.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>8575.0</v>
@@ -4776,10 +5104,20 @@
       <c r="AF35" t="n" s="8">
         <v>6888.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>6700.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>6811.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>6729.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>9045.0</v>
@@ -4874,10 +5212,20 @@
       <c r="AF36" t="n" s="8">
         <v>7351.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>7132.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>7163.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>7037.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.7</v>
@@ -4972,10 +5320,20 @@
       <c r="AF37" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>909.0</v>
@@ -5070,10 +5428,20 @@
       <c r="AF38" t="n" s="8">
         <v>1002.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>833.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>637.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>613.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>12565.0</v>
@@ -5168,10 +5536,20 @@
       <c r="AF39" t="n" s="8">
         <v>13006.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>13342.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>13907.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>13900.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>13474.0</v>
@@ -5266,10 +5644,20 @@
       <c r="AF40" t="n" s="8">
         <v>14008.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>14175.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>14544.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>14513.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>6.1</v>
@@ -5364,10 +5752,20 @@
       <c r="AF41" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>1501.0</v>
@@ -5462,10 +5860,20 @@
       <c r="AF42" t="n" s="8">
         <v>4481.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>3284.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>2698.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>2487.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>23216.0</v>
@@ -5560,10 +5968,20 @@
       <c r="AF43" t="n" s="8">
         <v>47121.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>50546.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>54444.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>56643.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>24717.0</v>
@@ -5658,10 +6076,20 @@
       <c r="AF44" t="n" s="8">
         <v>51602.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>53830.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>57142.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>59130.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>3.0</v>
@@ -5756,10 +6184,20 @@
       <c r="AF45" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>2750.0</v>
@@ -5854,10 +6292,20 @@
       <c r="AF46" t="n" s="8">
         <v>10862.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>5783.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>4253.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>3901.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>88839.0</v>
@@ -5952,10 +6400,20 @@
       <c r="AF47" t="n" s="8">
         <v>122139.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>130348.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>138014.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>140230.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>91589.0</v>
@@ -6050,10 +6508,20 @@
       <c r="AF48" t="n" s="8">
         <v>133001.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>136131.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>142267.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>144131.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>3.9</v>
@@ -6148,10 +6616,20 @@
       <c r="AF49" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>1655.0</v>
@@ -6246,10 +6724,20 @@
       <c r="AF50" t="n" s="8">
         <v>2729.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>1818.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>1421.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>1338.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>40313.0</v>
@@ -6344,10 +6832,20 @@
       <c r="AF51" t="n" s="8">
         <v>35731.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>37536.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>39260.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>39452.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>41968.0</v>
@@ -6442,10 +6940,20 @@
       <c r="AF52" t="n" s="8">
         <v>38460.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>39354.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>40681.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>40790.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>3.6</v>
@@ -6540,10 +7048,20 @@
       <c r="AF53" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>2003.0</v>
@@ -6638,10 +7156,20 @@
       <c r="AF54" t="n" s="8">
         <v>7260.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>4886.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>3970.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>3844.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>53422.0</v>
@@ -6736,10 +7264,20 @@
       <c r="AF55" t="n" s="8">
         <v>99509.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>105068.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>112114.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>114631.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>55425.0</v>
@@ -6834,10 +7372,20 @@
       <c r="AF56" t="n" s="8">
         <v>106769.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>109954.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>116084.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>118475.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.0</v>
@@ -6932,10 +7480,20 @@
       <c r="AF57" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1609.0</v>
@@ -7030,10 +7588,20 @@
       <c r="AF58" t="n" s="8">
         <v>2686.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>1758.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>1315.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>1229.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>38728.0</v>
@@ -7128,10 +7696,20 @@
       <c r="AF59" t="n" s="8">
         <v>31780.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>33389.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>34920.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>35092.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>40337.0</v>
@@ -7226,10 +7804,20 @@
       <c r="AF60" t="n" s="8">
         <v>34466.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>35147.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>36235.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>36321.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>3.2</v>
@@ -7324,10 +7912,20 @@
       <c r="AF61" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>91.0</v>
@@ -7422,10 +8020,20 @@
       <c r="AF62" t="n" s="8">
         <v>242.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>185.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>155.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>2733.0</v>
@@ -7520,10 +8128,20 @@
       <c r="AF63" t="n" s="8">
         <v>4187.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>4313.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>4514.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>4610.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>2824.0</v>
@@ -7618,10 +8236,20 @@
       <c r="AF64" t="n" s="8">
         <v>4429.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>4498.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>4694.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>4765.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>4.2</v>
@@ -7716,10 +8344,20 @@
       <c r="AF65" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>1073.0</v>
@@ -7814,10 +8452,20 @@
       <c r="AF66" t="n" s="8">
         <v>1868.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>1314.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>1128.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>1060.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>24580.0</v>
@@ -7912,10 +8560,20 @@
       <c r="AF67" t="n" s="8">
         <v>28347.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>29722.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>31037.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>31631.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>25653.0</v>
@@ -8010,10 +8668,20 @@
       <c r="AF68" t="n" s="8">
         <v>30215.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>31036.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>32165.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>32691.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>3.9</v>
@@ -8108,10 +8776,20 @@
       <c r="AF69" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>398.0</v>
@@ -8206,10 +8884,20 @@
       <c r="AF70" t="n" s="8">
         <v>715.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>508.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>393.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>349.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>9811.0</v>
@@ -8304,10 +8992,20 @@
       <c r="AF71" t="n" s="8">
         <v>8642.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>8870.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>9237.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>9476.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>10209.0</v>
@@ -8402,10 +9100,20 @@
       <c r="AF72" t="n" s="8">
         <v>9357.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>9378.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>9630.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>9825.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>4.2</v>
@@ -8500,10 +9208,20 @@
       <c r="AF73" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>2996.0</v>
@@ -8598,10 +9316,20 @@
       <c r="AF74" t="n" s="8">
         <v>5938.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>3620.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>2765.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>2612.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>68501.0</v>
@@ -8696,10 +9424,20 @@
       <c r="AF75" t="n" s="8">
         <v>69544.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>72986.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>76349.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>76755.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>71497.0</v>
@@ -8794,10 +9532,20 @@
       <c r="AF76" t="n" s="8">
         <v>75482.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>76606.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>79114.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>79367.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>2.8</v>
@@ -8892,10 +9640,20 @@
       <c r="AF77" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>624.0</v>
@@ -8990,10 +9748,20 @@
       <c r="AF78" t="n" s="8">
         <v>1835.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1330.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>1169.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>1126.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>21460.0</v>
@@ -9088,10 +9856,20 @@
       <c r="AF79" t="n" s="8">
         <v>32995.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>34229.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>36273.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>36951.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>22084.0</v>
@@ -9186,10 +9964,20 @@
       <c r="AF80" t="n" s="8">
         <v>34830.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>35559.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>37442.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>38077.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>9.1</v>
@@ -9284,10 +10072,20 @@
       <c r="AF81" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>867.0</v>
@@ -9382,10 +10180,20 @@
       <c r="AF82" t="n" s="8">
         <v>832.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>540.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>452.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>424.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>8641.0</v>
@@ -9480,10 +10288,20 @@
       <c r="AF83" t="n" s="8">
         <v>9784.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>10013.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>10648.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>10544.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>9508.0</v>
@@ -9578,10 +10396,20 @@
       <c r="AF84" t="n" s="8">
         <v>10616.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>10553.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>11100.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>10968.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>5.2</v>
@@ -9676,10 +10504,20 @@
       <c r="AF85" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>324.0</v>
@@ -9774,10 +10612,20 @@
       <c r="AF86" t="n" s="8">
         <v>319.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>277.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>235.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>213.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>5886.0</v>
@@ -9872,10 +10720,20 @@
       <c r="AF87" t="n" s="8">
         <v>4962.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>5193.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>5563.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>5703.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>6210.0</v>
@@ -9970,10 +10828,20 @@
       <c r="AF88" t="n" s="8">
         <v>5281.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>5470.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>5798.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>5916.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>5.7</v>
@@ -10068,10 +10936,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>184.0</v>
@@ -10166,10 +11044,20 @@
       <c r="AF90" t="n" s="8">
         <v>290.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>201.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>168.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>3059.0</v>
@@ -10264,10 +11152,20 @@
       <c r="AF91" t="n" s="8">
         <v>3669.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>3744.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>4022.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>4049.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>3243.0</v>
@@ -10362,10 +11260,20 @@
       <c r="AF92" t="n" s="8">
         <v>3959.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>3945.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>4190.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>4205.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>4.4</v>
@@ -10460,10 +11368,20 @@
       <c r="AF93" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>2036.0</v>
@@ -10558,10 +11476,20 @@
       <c r="AF94" t="n" s="8">
         <v>3625.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>2549.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1908.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1720.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>43801.0</v>
@@ -10656,10 +11584,20 @@
       <c r="AF95" t="n" s="8">
         <v>43311.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>44980.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>47129.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>47901.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>45837.0</v>
@@ -10754,10 +11692,20 @@
       <c r="AF96" t="n" s="8">
         <v>46936.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>47529.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>49037.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>49621.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>5.9</v>
@@ -10852,10 +11800,20 @@
       <c r="AF97" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1313.0</v>
@@ -10950,10 +11908,20 @@
       <c r="AF98" t="n" s="8">
         <v>1745.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>1402.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>1017.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>892.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>20918.0</v>
@@ -11048,10 +12016,20 @@
       <c r="AF99" t="n" s="8">
         <v>20110.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>20851.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>22522.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>21438.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>22231.0</v>
@@ -11146,10 +12124,20 @@
       <c r="AF100" t="n" s="8">
         <v>21855.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>22253.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>23539.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>22330.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>4.6</v>
@@ -11244,10 +12232,20 @@
       <c r="AF101" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>1552.0</v>
@@ -11342,10 +12340,20 @@
       <c r="AF102" t="n" s="8">
         <v>2556.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>1943.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>1567.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>1483.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>32203.0</v>
@@ -11440,10 +12448,20 @@
       <c r="AF103" t="n" s="8">
         <v>37123.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>38875.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>40508.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>41301.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>33755.0</v>
@@ -11538,10 +12556,20 @@
       <c r="AF104" t="n" s="8">
         <v>39679.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>40818.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>42075.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>42784.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>4.9</v>
@@ -11636,10 +12664,20 @@
       <c r="AF105" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>5053.0</v>
@@ -11734,10 +12772,20 @@
       <c r="AF106" t="n" s="8">
         <v>11434.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>8614.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>6608.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>6102.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>98567.0</v>
@@ -11832,10 +12880,20 @@
       <c r="AF107" t="n" s="8">
         <v>111805.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>116485.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>121003.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>123330.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>103620.0</v>
@@ -11930,10 +12988,20 @@
       <c r="AF108" t="n" s="8">
         <v>123239.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>125099.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>127611.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>129432.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>3.3</v>
@@ -12028,10 +13096,20 @@
       <c r="AF109" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>230.0</v>
@@ -12126,10 +13204,20 @@
       <c r="AF110" t="n" s="8">
         <v>851.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>594.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>517.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>455.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>6778.0</v>
@@ -12224,10 +13312,20 @@
       <c r="AF111" t="n" s="8">
         <v>13150.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>13601.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>14187.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>14426.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>7008.0</v>
@@ -12322,10 +13420,20 @@
       <c r="AF112" t="n" s="8">
         <v>14001.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>14195.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>14704.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>14881.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>4.5</v>
@@ -12420,10 +13528,20 @@
       <c r="AF113" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>637.0</v>
@@ -12518,10 +13636,20 @@
       <c r="AF114" t="n" s="8">
         <v>1859.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>1169.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>870.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>801.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>13520.0</v>
@@ -12616,10 +13744,20 @@
       <c r="AF115" t="n" s="8">
         <v>17172.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>18427.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>19129.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>19454.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>14157.0</v>
@@ -12714,10 +13852,20 @@
       <c r="AF116" t="n" s="8">
         <v>19031.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>19596.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>19999.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>20255.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>3.9</v>
@@ -12812,10 +13960,20 @@
       <c r="AF117" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>2869.0</v>
@@ -12910,10 +14068,20 @@
       <c r="AF118" t="n" s="8">
         <v>5367.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>3649.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>2891.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>2742.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>70234.0</v>
@@ -13008,10 +14176,20 @@
       <c r="AF119" t="n" s="8">
         <v>71988.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>74924.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>78484.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>78659.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>73103.0</v>
@@ -13106,10 +14284,20 @@
       <c r="AF120" t="n" s="8">
         <v>77355.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>78573.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>81375.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>81401.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>4.4</v>
@@ -13204,10 +14392,20 @@
       <c r="AF121" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>701.0</v>
@@ -13302,10 +14500,20 @@
       <c r="AF122" t="n" s="8">
         <v>1307.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>877.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>710.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>651.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>15053.0</v>
@@ -13400,10 +14608,20 @@
       <c r="AF123" t="n" s="8">
         <v>18380.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>19121.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>20035.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>20080.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>15754.0</v>
@@ -13498,10 +14716,20 @@
       <c r="AF124" t="n" s="8">
         <v>19687.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>19998.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>20745.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>20731.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>5.5</v>
@@ -13596,10 +14824,20 @@
       <c r="AF125" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>1093.0</v>
@@ -13694,10 +14932,20 @@
       <c r="AF126" t="n" s="8">
         <v>1329.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>1090.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>914.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>846.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>18779.0</v>
@@ -13792,10 +15040,20 @@
       <c r="AF127" t="n" s="8">
         <v>22671.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>22986.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>23919.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>24676.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>19872.0</v>
@@ -13890,10 +15148,20 @@
       <c r="AF128" t="n" s="8">
         <v>24000.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>24076.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>24833.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>25522.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>2.7</v>
@@ -13988,10 +15256,20 @@
       <c r="AF129" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>2727.0</v>
@@ -14086,10 +15364,20 @@
       <c r="AF130" t="n" s="8">
         <v>10644.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>7294.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>5733.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>5581.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>99368.0</v>
@@ -14184,10 +15472,20 @@
       <c r="AF131" t="n" s="8">
         <v>158074.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>163236.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>173285.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>176950.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>102095.0</v>
@@ -14282,10 +15580,20 @@
       <c r="AF132" t="n" s="8">
         <v>168718.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>170530.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>179018.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>182531.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>5.0</v>
@@ -14380,10 +15688,20 @@
       <c r="AF133" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>1409.0</v>
@@ -14478,10 +15796,20 @@
       <c r="AF134" t="n" s="8">
         <v>2076.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>1714.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>1341.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>1149.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>26861.0</v>
@@ -14576,10 +15904,20 @@
       <c r="AF135" t="n" s="8">
         <v>17841.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>18546.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>18862.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>18897.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>28270.0</v>
@@ -14674,10 +16012,20 @@
       <c r="AF136" t="n" s="8">
         <v>19917.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>20260.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>20203.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>20046.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>4.0</v>
@@ -14772,10 +16120,20 @@
       <c r="AF137" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>5805.0</v>
@@ -14870,10 +16228,20 @@
       <c r="AF138" t="n" s="8">
         <v>13049.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>9119.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>7086.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>6661.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>139957.0</v>
@@ -14968,10 +16336,20 @@
       <c r="AF139" t="n" s="8">
         <v>166480.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>173169.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>181410.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>181846.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>145762.0</v>
@@ -15066,10 +16444,20 @@
       <c r="AF140" t="n" s="8">
         <v>179529.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>182288.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>188496.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>188507.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>4.7</v>
@@ -15164,10 +16552,20 @@
       <c r="AF141" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>884.0</v>
@@ -15262,10 +16660,20 @@
       <c r="AF142" t="n" s="8">
         <v>2038.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>1537.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>1250.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>1217.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>17971.0</v>
@@ -15360,10 +16768,20 @@
       <c r="AF143" t="n" s="8">
         <v>28606.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>30447.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>32749.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>33688.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>18855.0</v>
@@ -15458,10 +16876,20 @@
       <c r="AF144" t="n" s="8">
         <v>30644.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>31984.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>33999.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>34905.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>4.1</v>
@@ -15556,10 +16984,20 @@
       <c r="AF145" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>3874.0</v>
@@ -15654,10 +17092,20 @@
       <c r="AF146" t="n" s="8">
         <v>8380.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>5696.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>4257.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>3965.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>91643.0</v>
@@ -15752,10 +17200,20 @@
       <c r="AF147" t="n" s="8">
         <v>98013.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>103494.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>110438.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>112933.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>95517.0</v>
@@ -15850,10 +17308,20 @@
       <c r="AF148" t="n" s="8">
         <v>106393.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>109190.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>114695.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>116898.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>2.6</v>
@@ -15948,10 +17416,20 @@
       <c r="AF149" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>107.0</v>
@@ -16046,10 +17524,20 @@
       <c r="AF150" t="n" s="8">
         <v>276.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>181.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>3976.0</v>
@@ -16144,10 +17632,20 @@
       <c r="AF151" t="n" s="8">
         <v>4588.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>4737.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>4947.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>5029.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>4083.0</v>
@@ -16242,10 +17740,20 @@
       <c r="AF152" t="n" s="8">
         <v>4864.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>4956.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>5128.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>5203.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>15.0</v>
@@ -16340,10 +17848,20 @@
       <c r="AF153" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>518.0</v>
@@ -16438,10 +17956,20 @@
       <c r="AF154" t="n" s="8">
         <v>292.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>208.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>2925.0</v>
@@ -16536,10 +18064,20 @@
       <c r="AF155" t="n" s="8">
         <v>2685.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>2789.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>2793.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>2812.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>3443.0</v>
@@ -16634,10 +18172,20 @@
       <c r="AF156" t="n" s="8">
         <v>2977.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>2997.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>2953.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>2940.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>4.6</v>
@@ -16732,10 +18280,20 @@
       <c r="AF157" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>901.0</v>
@@ -16830,10 +18388,20 @@
       <c r="AF158" t="n" s="8">
         <v>1649.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>1199.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>972.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>929.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>18758.0</v>
@@ -16928,10 +18496,20 @@
       <c r="AF159" t="n" s="8">
         <v>27143.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>27946.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>29262.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>29552.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>19659.0</v>
@@ -17026,10 +18604,20 @@
       <c r="AF160" t="n" s="8">
         <v>28792.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>29145.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>30234.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>30481.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>4.1</v>
@@ -17124,10 +18712,20 @@
       <c r="AF161" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>309.0</v>
@@ -17222,10 +18820,20 @@
       <c r="AF162" t="n" s="8">
         <v>512.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>392.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>313.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>279.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>7191.0</v>
@@ -17320,10 +18928,20 @@
       <c r="AF163" t="n" s="8">
         <v>8684.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>8895.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>9241.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>9373.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>7500.0</v>
@@ -17418,10 +19036,20 @@
       <c r="AF164" t="n" s="8">
         <v>9196.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>9287.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>9554.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>9652.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>3.5</v>
@@ -17516,10 +19144,20 @@
       <c r="AF165" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>7115.0</v>
@@ -17614,10 +19252,20 @@
       <c r="AF166" t="n" s="8">
         <v>21037.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>14378.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>10779.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>10178.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>193641.0</v>
@@ -17712,10 +19360,20 @@
       <c r="AF167" t="n" s="8">
         <v>230345.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>238606.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>249172.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>249860.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>200756.0</v>
@@ -17810,10 +19468,20 @@
       <c r="AF168" t="n" s="8">
         <v>251382.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>252984.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>259951.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>260038.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>5.8</v>
@@ -17908,10 +19576,20 @@
       <c r="AF169" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>1393.0</v>
@@ -18006,10 +19684,20 @@
       <c r="AF170" t="n" s="8">
         <v>1747.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>1426.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>1096.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>998.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>22510.0</v>
@@ -18104,10 +19792,20 @@
       <c r="AF171" t="n" s="8">
         <v>17614.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>17651.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>18119.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>18276.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>23903.0</v>
@@ -18202,10 +19900,20 @@
       <c r="AF172" t="n" s="8">
         <v>19361.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>19077.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>19215.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>19274.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>4.6</v>
@@ -18300,10 +20008,20 @@
       <c r="AF173" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>1449.0</v>
@@ -18398,10 +20116,20 @@
       <c r="AF174" t="n" s="8">
         <v>3781.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>2841.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>2278.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>2173.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>30200.0</v>
@@ -18496,10 +20224,20 @@
       <c r="AF175" t="n" s="8">
         <v>47591.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>49920.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>52711.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>53470.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>31649.0</v>
@@ -18594,10 +20332,20 @@
       <c r="AF176" t="n" s="8">
         <v>51372.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>52761.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>54989.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>55643.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>4.8</v>
@@ -18692,10 +20440,20 @@
       <c r="AF177" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>1107.0</v>
@@ -18790,10 +20548,20 @@
       <c r="AF178" t="n" s="8">
         <v>2067.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>1250.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>974.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>924.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>21898.0</v>
@@ -18888,10 +20656,20 @@
       <c r="AF179" t="n" s="8">
         <v>25920.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>27648.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>29282.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>29756.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>23005.0</v>
@@ -18986,10 +20764,20 @@
       <c r="AF180" t="n" s="8">
         <v>27987.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>28898.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>30256.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>30680.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>2.6</v>
@@ -19084,10 +20872,20 @@
       <c r="AF181" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>838.0</v>
@@ -19182,10 +20980,20 @@
       <c r="AF182" t="n" s="8">
         <v>3467.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>2206.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>1774.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>1638.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>31599.0</v>
@@ -19280,10 +21088,20 @@
       <c r="AF183" t="n" s="8">
         <v>47671.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>50850.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>53850.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>54705.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>32437.0</v>
@@ -19378,10 +21196,20 @@
       <c r="AF184" t="n" s="8">
         <v>51138.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>53056.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>55624.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>56343.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>5.8</v>
@@ -19476,10 +21304,20 @@
       <c r="AF185" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>586.0</v>
@@ -19574,10 +21412,20 @@
       <c r="AF186" t="n" s="8">
         <v>593.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>562.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>442.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>393.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>9524.0</v>
@@ -19672,10 +21520,20 @@
       <c r="AF187" t="n" s="8">
         <v>8081.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>7906.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>8112.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>8022.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>10110.0</v>
@@ -19770,10 +21628,20 @@
       <c r="AF188" t="n" s="8">
         <v>8674.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>8468.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>8554.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>8415.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>5.1</v>
@@ -19868,10 +21736,20 @@
       <c r="AF189" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>492.0</v>
@@ -19966,10 +21844,20 @@
       <c r="AF190" t="n" s="8">
         <v>1636.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>1285.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>1008.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>911.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>9235.0</v>
@@ -20064,10 +21952,20 @@
       <c r="AF191" t="n" s="8">
         <v>17777.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>18535.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>19258.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>19614.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>9727.0</v>
@@ -20162,10 +22060,20 @@
       <c r="AF192" t="n" s="8">
         <v>19413.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>19820.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>20266.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>20525.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>7.8</v>
@@ -20260,10 +22168,20 @@
       <c r="AF193" t="n" s="10">
         <v>10.3</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>200.0</v>
@@ -20358,10 +22276,20 @@
       <c r="AF194" t="n" s="8">
         <v>179.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>2365.0</v>
@@ -20456,10 +22384,20 @@
       <c r="AF195" t="n" s="8">
         <v>1564.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>1630.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>1668.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>1671.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>2565.0</v>
@@ -20554,10 +22492,20 @@
       <c r="AF196" t="n" s="8">
         <v>1743.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>1746.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>1770.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>1774.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>3.9</v>
@@ -20652,10 +22600,20 @@
       <c r="AF197" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>2034.0</v>
@@ -20750,10 +22708,20 @@
       <c r="AF198" t="n" s="8">
         <v>6253.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>4196.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>3234.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>3134.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>50402.0</v>
@@ -20848,10 +22816,20 @@
       <c r="AF199" t="n" s="8">
         <v>81104.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>85656.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>91385.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>93417.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>52436.0</v>
@@ -20946,10 +22924,20 @@
       <c r="AF200" t="n" s="8">
         <v>87357.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>89852.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>94619.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>96551.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>5.6</v>
@@ -21044,10 +23032,20 @@
       <c r="AF201" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>756.0</v>
@@ -21142,10 +23140,20 @@
       <c r="AF202" t="n" s="8">
         <v>1427.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>896.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>772.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>720.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>12847.0</v>
@@ -21240,10 +23248,20 @@
       <c r="AF203" t="n" s="8">
         <v>17663.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>18433.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>18984.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>19310.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>13603.0</v>
@@ -21338,10 +23356,20 @@
       <c r="AF204" t="n" s="8">
         <v>19090.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>19329.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>19756.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>20030.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>4.2</v>
@@ -21436,10 +23464,20 @@
       <c r="AF205" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>1869.0</v>
@@ -21534,10 +23572,20 @@
       <c r="AF206" t="n" s="8">
         <v>6015.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>4359.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>3607.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>3526.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>42816.0</v>
@@ -21632,10 +23680,20 @@
       <c r="AF207" t="n" s="8">
         <v>91245.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>97112.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>104427.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>107369.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>44685.0</v>
@@ -21730,10 +23788,20 @@
       <c r="AF208" t="n" s="8">
         <v>97260.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>101471.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>108034.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>110895.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>4.7</v>
@@ -21828,10 +23896,20 @@
       <c r="AF209" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>209.0</v>
@@ -21926,10 +24004,20 @@
       <c r="AF210" t="n" s="8">
         <v>227.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>4217.0</v>
@@ -22024,10 +24112,20 @@
       <c r="AF211" t="n" s="8">
         <v>3809.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>3985.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>4161.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>4232.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>4426.0</v>
@@ -22122,10 +24220,20 @@
       <c r="AF212" t="n" s="8">
         <v>4036.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>4165.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>4310.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>4370.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>5.0</v>
@@ -22220,10 +24328,20 @@
       <c r="AF213" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>1073.0</v>
@@ -22318,10 +24436,20 @@
       <c r="AF214" t="n" s="8">
         <v>1980.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>1383.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>1108.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>1024.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>20175.0</v>
@@ -22416,10 +24544,20 @@
       <c r="AF215" t="n" s="8">
         <v>23080.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>23733.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>24922.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>24680.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>21248.0</v>
@@ -22514,10 +24652,20 @@
       <c r="AF216" t="n" s="8">
         <v>25060.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>25116.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>26030.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>25704.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>4.8</v>
@@ -22612,10 +24760,20 @@
       <c r="AF217" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>1348.0</v>
@@ -22710,10 +24868,20 @@
       <c r="AF218" t="n" s="8">
         <v>1618.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>1354.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>1027.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>954.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>26932.0</v>
@@ -22808,10 +24976,20 @@
       <c r="AF219" t="n" s="8">
         <v>25014.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>25395.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>26587.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>26826.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>28280.0</v>
@@ -22906,10 +25084,20 @@
       <c r="AF220" t="n" s="8">
         <v>26632.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>26749.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>27614.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>27780.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>4.1</v>
@@ -23004,10 +25192,20 @@
       <c r="AF221" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>1164.0</v>
@@ -23102,10 +25300,20 @@
       <c r="AF222" t="n" s="8">
         <v>2740.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>1816.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>1475.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>1420.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>27004.0</v>
@@ -23200,10 +25408,20 @@
       <c r="AF223" t="n" s="8">
         <v>39845.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>42122.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>44910.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>45881.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>28168.0</v>
@@ -23298,10 +25516,20 @@
       <c r="AF224" t="n" s="8">
         <v>42585.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>43938.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>46385.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>47301.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>6.0</v>
@@ -23396,10 +25624,20 @@
       <c r="AF225" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>1144.0</v>
@@ -23494,10 +25732,20 @@
       <c r="AF226" t="n" s="8">
         <v>1364.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>914.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>711.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>653.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>17863.0</v>
@@ -23592,10 +25840,20 @@
       <c r="AF227" t="n" s="8">
         <v>18491.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>18930.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>19540.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>19623.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>19007.0</v>
@@ -23690,10 +25948,20 @@
       <c r="AF228" t="n" s="8">
         <v>19855.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>19844.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>20251.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>20276.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>3.5</v>
@@ -23788,10 +26056,20 @@
       <c r="AF229" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>393.0</v>
@@ -23886,10 +26164,20 @@
       <c r="AF230" t="n" s="8">
         <v>989.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>659.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>562.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>522.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>10731.0</v>
@@ -23984,10 +26272,20 @@
       <c r="AF231" t="n" s="8">
         <v>13925.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>14593.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>15424.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>15968.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>11124.0</v>
@@ -24082,10 +26380,20 @@
       <c r="AF232" t="n" s="8">
         <v>14914.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>15252.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>15986.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>16490.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>4.3</v>
@@ -24180,10 +26488,20 @@
       <c r="AF233" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>352.0</v>
@@ -24278,10 +26596,20 @@
       <c r="AF234" t="n" s="8">
         <v>631.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>420.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>348.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>324.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>7868.0</v>
@@ -24376,10 +26704,20 @@
       <c r="AF235" t="n" s="8">
         <v>8632.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>9207.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>9751.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>9908.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>8220.0</v>
@@ -24474,10 +26812,20 @@
       <c r="AF236" t="n" s="8">
         <v>9263.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>9627.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>10099.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>10232.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>5.3</v>
@@ -24572,10 +26920,20 @@
       <c r="AF237" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>645.0</v>
@@ -24670,10 +27028,20 @@
       <c r="AF238" t="n" s="8">
         <v>585.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>485.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>385.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>377.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>11541.0</v>
@@ -24768,10 +27136,20 @@
       <c r="AF239" t="n" s="8">
         <v>8008.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>7993.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>8190.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>8269.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>12186.0</v>
@@ -24866,10 +27244,20 @@
       <c r="AF240" t="n" s="8">
         <v>8593.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>8478.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>8575.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>8646.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>2.7</v>
@@ -24964,10 +27352,20 @@
       <c r="AF241" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>8044.0</v>
@@ -25062,10 +27460,20 @@
       <c r="AF242" t="n" s="8">
         <v>45751.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>30481.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>23093.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>22352.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>290273.0</v>
@@ -25160,10 +27568,20 @@
       <c r="AF243" t="n" s="8">
         <v>558343.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>589814.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>629232.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>643343.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>298317.0</v>
@@ -25258,10 +27676,20 @@
       <c r="AF244" t="n" s="8">
         <v>604094.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>620295.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>652325.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>665695.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>6.6</v>
@@ -25356,10 +27784,20 @@
       <c r="AF245" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>457.0</v>
@@ -25454,10 +27892,20 @@
       <c r="AF246" t="n" s="8">
         <v>438.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>309.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>253.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>224.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>6482.0</v>
@@ -25552,10 +28000,20 @@
       <c r="AF247" t="n" s="8">
         <v>5285.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>5577.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>5756.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>5963.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>6939.0</v>
@@ -25650,10 +28108,20 @@
       <c r="AF248" t="n" s="8">
         <v>5723.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>5886.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>6009.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>6187.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>6.1</v>
@@ -25748,10 +28216,20 @@
       <c r="AF249" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>739.0</v>
@@ -25846,10 +28324,20 @@
       <c r="AF250" t="n" s="8">
         <v>719.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>525.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>421.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>407.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>11341.0</v>
@@ -25944,10 +28432,20 @@
       <c r="AF251" t="n" s="8">
         <v>10215.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>10440.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>10817.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>10822.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>12080.0</v>
@@ -26042,10 +28540,20 @@
       <c r="AF252" t="n" s="8">
         <v>10934.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>10965.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>11238.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>11229.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>4.0</v>
@@ -26140,10 +28648,20 @@
       <c r="AF253" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>1105.0</v>
@@ -26238,10 +28756,20 @@
       <c r="AF254" t="n" s="8">
         <v>2823.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>1879.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>1559.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>1481.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>26754.0</v>
@@ -26336,10 +28864,20 @@
       <c r="AF255" t="n" s="8">
         <v>36572.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>38155.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>40521.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>41555.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>27859.0</v>
@@ -26434,10 +28972,20 @@
       <c r="AF256" t="n" s="8">
         <v>39395.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>40034.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>42080.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>43036.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>4.2</v>
@@ -26532,10 +29080,20 @@
       <c r="AF257" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>1735.0</v>
@@ -26630,10 +29188,20 @@
       <c r="AF258" t="n" s="8">
         <v>3374.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>2671.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>2139.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>1914.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>39719.0</v>
@@ -26728,10 +29296,20 @@
       <c r="AF259" t="n" s="8">
         <v>37891.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>39414.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>40066.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>40141.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>41454.0</v>
@@ -26826,10 +29404,20 @@
       <c r="AF260" t="n" s="8">
         <v>41265.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>42085.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>42205.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>42055.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>4.5</v>
@@ -26924,10 +29512,20 @@
       <c r="AF261" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>2954.0</v>
@@ -27022,10 +29620,20 @@
       <c r="AF262" t="n" s="8">
         <v>8387.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>5291.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>4291.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>4179.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>62634.0</v>
@@ -27120,10 +29728,20 @@
       <c r="AF263" t="n" s="8">
         <v>109452.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>116878.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>125541.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>128796.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>65588.0</v>
@@ -27218,10 +29836,20 @@
       <c r="AF264" t="n" s="8">
         <v>117839.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>122169.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>129832.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>132975.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>4.6</v>
@@ -27316,10 +29944,20 @@
       <c r="AF265" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>402.0</v>
@@ -27414,10 +30052,20 @@
       <c r="AF266" t="n" s="8">
         <v>521.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>452.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>357.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>334.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>8260.0</v>
@@ -27512,10 +30160,20 @@
       <c r="AF267" t="n" s="8">
         <v>6668.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>6694.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>6879.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>6934.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>8662.0</v>
@@ -27610,10 +30268,20 @@
       <c r="AF268" t="n" s="8">
         <v>7189.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>7146.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>7236.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>7268.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="7">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B269" t="n" s="10">
         <v>4.9</v>
@@ -27708,10 +30376,20 @@
       <c r="AF269" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG269" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH269" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI269" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="7">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B270" t="n" s="8">
         <v>2047.0</v>
@@ -27806,10 +30484,20 @@
       <c r="AF270" t="n" s="8">
         <v>4504.0</v>
       </c>
+      <c r="AG270" t="n" s="8">
+        <v>3416.0</v>
+      </c>
+      <c r="AH270" t="n" s="8">
+        <v>2937.0</v>
+      </c>
+      <c r="AI270" t="n" s="8">
+        <v>2791.0</v>
+      </c>
+      <c r="AJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B271" t="n" s="8">
         <v>39577.0</v>
@@ -27904,10 +30592,20 @@
       <c r="AF271" t="n" s="8">
         <v>58076.0</v>
       </c>
+      <c r="AG271" t="n" s="8">
+        <v>61961.0</v>
+      </c>
+      <c r="AH271" t="n" s="8">
+        <v>65247.0</v>
+      </c>
+      <c r="AI271" t="n" s="8">
+        <v>66767.0</v>
+      </c>
+      <c r="AJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="7">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B272" t="n" s="8">
         <v>41624.0</v>
@@ -28002,10 +30700,20 @@
       <c r="AF272" t="n" s="8">
         <v>62580.0</v>
       </c>
+      <c r="AG272" t="n" s="8">
+        <v>65377.0</v>
+      </c>
+      <c r="AH272" t="n" s="8">
+        <v>68184.0</v>
+      </c>
+      <c r="AI272" t="n" s="8">
+        <v>69558.0</v>
+      </c>
+      <c r="AJ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="7">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B273" t="n" s="10">
         <v>2.4</v>
@@ -28100,10 +30808,20 @@
       <c r="AF273" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG273" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH273" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI273" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="7">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B274" t="n" s="8">
         <v>1296.0</v>
@@ -28198,10 +30916,20 @@
       <c r="AF274" t="n" s="8">
         <v>3993.0</v>
       </c>
+      <c r="AG274" t="n" s="8">
+        <v>2812.0</v>
+      </c>
+      <c r="AH274" t="n" s="8">
+        <v>2493.0</v>
+      </c>
+      <c r="AI274" t="n" s="8">
+        <v>2401.0</v>
+      </c>
+      <c r="AJ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="7">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B275" t="n" s="8">
         <v>52061.0</v>
@@ -28296,10 +31024,20 @@
       <c r="AF275" t="n" s="8">
         <v>72017.0</v>
       </c>
+      <c r="AG275" t="n" s="8">
+        <v>74520.0</v>
+      </c>
+      <c r="AH275" t="n" s="8">
+        <v>79042.0</v>
+      </c>
+      <c r="AI275" t="n" s="8">
+        <v>80644.0</v>
+      </c>
+      <c r="AJ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="7">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B276" t="n" s="8">
         <v>53357.0</v>
@@ -28394,10 +31132,20 @@
       <c r="AF276" t="n" s="8">
         <v>76010.0</v>
       </c>
+      <c r="AG276" t="n" s="8">
+        <v>77332.0</v>
+      </c>
+      <c r="AH276" t="n" s="8">
+        <v>81535.0</v>
+      </c>
+      <c r="AI276" t="n" s="8">
+        <v>83045.0</v>
+      </c>
+      <c r="AJ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="7">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B277" t="n" s="10">
         <v>4.0</v>
@@ -28492,10 +31240,20 @@
       <c r="AF277" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG277" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH277" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI277" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="7">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B278" t="n" s="8">
         <v>204.0</v>
@@ -28590,10 +31348,20 @@
       <c r="AF278" t="n" s="8">
         <v>282.0</v>
       </c>
+      <c r="AG278" t="n" s="8">
+        <v>233.0</v>
+      </c>
+      <c r="AH278" t="n" s="8">
+        <v>202.0</v>
+      </c>
+      <c r="AI278" t="n" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AJ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="7">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B279" t="n" s="8">
         <v>4848.0</v>
@@ -28688,10 +31456,20 @@
       <c r="AF279" t="n" s="8">
         <v>4854.0</v>
       </c>
+      <c r="AG279" t="n" s="8">
+        <v>5079.0</v>
+      </c>
+      <c r="AH279" t="n" s="8">
+        <v>5297.0</v>
+      </c>
+      <c r="AI279" t="n" s="8">
+        <v>5398.0</v>
+      </c>
+      <c r="AJ279"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="7">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B280" t="n" s="8">
         <v>5052.0</v>
@@ -28786,10 +31564,20 @@
       <c r="AF280" t="n" s="8">
         <v>5136.0</v>
       </c>
+      <c r="AG280" t="n" s="8">
+        <v>5312.0</v>
+      </c>
+      <c r="AH280" t="n" s="8">
+        <v>5499.0</v>
+      </c>
+      <c r="AI280" t="n" s="8">
+        <v>5580.0</v>
+      </c>
+      <c r="AJ280"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="7">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B281" t="n" s="10">
         <v>4.4</v>
@@ -28884,10 +31672,20 @@
       <c r="AF281" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG281" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH281" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI281" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ281"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="7">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B282" t="n" s="8">
         <v>593.0</v>
@@ -28982,10 +31780,20 @@
       <c r="AF282" t="n" s="8">
         <v>1159.0</v>
       </c>
+      <c r="AG282" t="n" s="8">
+        <v>890.0</v>
+      </c>
+      <c r="AH282" t="n" s="8">
+        <v>754.0</v>
+      </c>
+      <c r="AI282" t="n" s="8">
+        <v>692.0</v>
+      </c>
+      <c r="AJ282"/>
     </row>
     <row r="283">
       <c r="A283" t="s" s="7">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B283" t="n" s="8">
         <v>13017.0</v>
@@ -29080,10 +31888,20 @@
       <c r="AF283" t="n" s="8">
         <v>14868.0</v>
       </c>
+      <c r="AG283" t="n" s="8">
+        <v>15313.0</v>
+      </c>
+      <c r="AH283" t="n" s="8">
+        <v>16020.0</v>
+      </c>
+      <c r="AI283" t="n" s="8">
+        <v>16375.0</v>
+      </c>
+      <c r="AJ283"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="7">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B284" t="n" s="8">
         <v>13610.0</v>
@@ -29178,10 +31996,20 @@
       <c r="AF284" t="n" s="8">
         <v>16027.0</v>
       </c>
+      <c r="AG284" t="n" s="8">
+        <v>16203.0</v>
+      </c>
+      <c r="AH284" t="n" s="8">
+        <v>16774.0</v>
+      </c>
+      <c r="AI284" t="n" s="8">
+        <v>17067.0</v>
+      </c>
+      <c r="AJ284"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="7">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B285" t="n" s="10">
         <v>4.5</v>
@@ -29276,10 +32104,20 @@
       <c r="AF285" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG285" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH285" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI285" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ285"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="7">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B286" t="n" s="8">
         <v>625.0</v>
@@ -29374,10 +32212,20 @@
       <c r="AF286" t="n" s="8">
         <v>1775.0</v>
       </c>
+      <c r="AG286" t="n" s="8">
+        <v>1252.0</v>
+      </c>
+      <c r="AH286" t="n" s="8">
+        <v>1073.0</v>
+      </c>
+      <c r="AI286" t="n" s="8">
+        <v>1006.0</v>
+      </c>
+      <c r="AJ286"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="7">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B287" t="n" s="8">
         <v>13115.0</v>
@@ -29472,10 +32320,20 @@
       <c r="AF287" t="n" s="8">
         <v>25950.0</v>
       </c>
+      <c r="AG287" t="n" s="8">
+        <v>27691.0</v>
+      </c>
+      <c r="AH287" t="n" s="8">
+        <v>29735.0</v>
+      </c>
+      <c r="AI287" t="n" s="8">
+        <v>30478.0</v>
+      </c>
+      <c r="AJ287"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="7">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B288" t="n" s="8">
         <v>13740.0</v>
@@ -29570,10 +32428,20 @@
       <c r="AF288" t="n" s="8">
         <v>27725.0</v>
       </c>
+      <c r="AG288" t="n" s="8">
+        <v>28943.0</v>
+      </c>
+      <c r="AH288" t="n" s="8">
+        <v>30808.0</v>
+      </c>
+      <c r="AI288" t="n" s="8">
+        <v>31484.0</v>
+      </c>
+      <c r="AJ288"/>
     </row>
     <row r="289">
       <c r="A289" t="s" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B289" t="n" s="10">
         <v>3.6</v>
@@ -29668,10 +32536,20 @@
       <c r="AF289" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG289" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH289" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI289" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ289"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B290" t="n" s="8">
         <v>164.0</v>
@@ -29766,10 +32644,20 @@
       <c r="AF290" t="n" s="8">
         <v>317.0</v>
       </c>
+      <c r="AG290" t="n" s="8">
+        <v>263.0</v>
+      </c>
+      <c r="AH290" t="n" s="8">
+        <v>225.0</v>
+      </c>
+      <c r="AI290" t="n" s="8">
+        <v>202.0</v>
+      </c>
+      <c r="AJ290"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="7">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B291" t="n" s="8">
         <v>4333.0</v>
@@ -29864,10 +32752,20 @@
       <c r="AF291" t="n" s="8">
         <v>4396.0</v>
       </c>
+      <c r="AG291" t="n" s="8">
+        <v>4544.0</v>
+      </c>
+      <c r="AH291" t="n" s="8">
+        <v>4755.0</v>
+      </c>
+      <c r="AI291" t="n" s="8">
+        <v>4846.0</v>
+      </c>
+      <c r="AJ291"/>
     </row>
     <row r="292">
       <c r="A292" t="s" s="7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B292" t="n" s="8">
         <v>4497.0</v>
@@ -29962,10 +32860,20 @@
       <c r="AF292" t="n" s="8">
         <v>4713.0</v>
       </c>
+      <c r="AG292" t="n" s="8">
+        <v>4807.0</v>
+      </c>
+      <c r="AH292" t="n" s="8">
+        <v>4980.0</v>
+      </c>
+      <c r="AI292" t="n" s="8">
+        <v>5048.0</v>
+      </c>
+      <c r="AJ292"/>
     </row>
     <row r="293">
       <c r="A293" t="s" s="7">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B293" t="n" s="10">
         <v>6.2</v>
@@ -30060,10 +32968,20 @@
       <c r="AF293" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG293" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH293" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI293" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ293"/>
     </row>
     <row r="294">
       <c r="A294" t="s" s="7">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B294" t="n" s="8">
         <v>1043.0</v>
@@ -30158,10 +33076,20 @@
       <c r="AF294" t="n" s="8">
         <v>1271.0</v>
       </c>
+      <c r="AG294" t="n" s="8">
+        <v>927.0</v>
+      </c>
+      <c r="AH294" t="n" s="8">
+        <v>718.0</v>
+      </c>
+      <c r="AI294" t="n" s="8">
+        <v>668.0</v>
+      </c>
+      <c r="AJ294"/>
     </row>
     <row r="295">
       <c r="A295" t="s" s="7">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B295" t="n" s="8">
         <v>15663.0</v>
@@ -30256,10 +33184,20 @@
       <c r="AF295" t="n" s="8">
         <v>16517.0</v>
       </c>
+      <c r="AG295" t="n" s="8">
+        <v>17054.0</v>
+      </c>
+      <c r="AH295" t="n" s="8">
+        <v>18106.0</v>
+      </c>
+      <c r="AI295" t="n" s="8">
+        <v>18482.0</v>
+      </c>
+      <c r="AJ295"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B296" t="n" s="8">
         <v>16706.0</v>
@@ -30354,10 +33292,20 @@
       <c r="AF296" t="n" s="8">
         <v>17788.0</v>
       </c>
+      <c r="AG296" t="n" s="8">
+        <v>17981.0</v>
+      </c>
+      <c r="AH296" t="n" s="8">
+        <v>18824.0</v>
+      </c>
+      <c r="AI296" t="n" s="8">
+        <v>19150.0</v>
+      </c>
+      <c r="AJ296"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="7">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B297" t="n" s="10">
         <v>4.0</v>
@@ -30452,10 +33400,20 @@
       <c r="AF297" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG297" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH297" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI297" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ297"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B298" t="n" s="8">
         <v>2301.0</v>
@@ -30550,10 +33508,20 @@
       <c r="AF298" t="n" s="8">
         <v>5694.0</v>
       </c>
+      <c r="AG298" t="n" s="8">
+        <v>4473.0</v>
+      </c>
+      <c r="AH298" t="n" s="8">
+        <v>3634.0</v>
+      </c>
+      <c r="AI298" t="n" s="8">
+        <v>3512.0</v>
+      </c>
+      <c r="AJ298"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="7">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B299" t="n" s="8">
         <v>54975.0</v>
@@ -30648,10 +33616,20 @@
       <c r="AF299" t="n" s="8">
         <v>79630.0</v>
       </c>
+      <c r="AG299" t="n" s="8">
+        <v>80188.0</v>
+      </c>
+      <c r="AH299" t="n" s="8">
+        <v>84352.0</v>
+      </c>
+      <c r="AI299" t="n" s="8">
+        <v>85787.0</v>
+      </c>
+      <c r="AJ299"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="7">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B300" t="n" s="8">
         <v>57276.0</v>
@@ -30746,10 +33724,20 @@
       <c r="AF300" t="n" s="8">
         <v>85324.0</v>
       </c>
+      <c r="AG300" t="n" s="8">
+        <v>84661.0</v>
+      </c>
+      <c r="AH300" t="n" s="8">
+        <v>87986.0</v>
+      </c>
+      <c r="AI300" t="n" s="8">
+        <v>89299.0</v>
+      </c>
+      <c r="AJ300"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="7">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B301" t="n" s="10">
         <v>2.1</v>
@@ -30844,10 +33832,20 @@
       <c r="AF301" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG301" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH301" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI301" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ301"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="7">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B302" t="n" s="8">
         <v>148.0</v>
@@ -30942,10 +33940,20 @@
       <c r="AF302" t="n" s="8">
         <v>534.0</v>
       </c>
+      <c r="AG302" t="n" s="8">
+        <v>430.0</v>
+      </c>
+      <c r="AH302" t="n" s="8">
+        <v>361.0</v>
+      </c>
+      <c r="AI302" t="n" s="8">
+        <v>311.0</v>
+      </c>
+      <c r="AJ302"/>
     </row>
     <row r="303">
       <c r="A303" t="s" s="7">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B303" t="n" s="8">
         <v>6783.0</v>
@@ -31040,10 +34048,20 @@
       <c r="AF303" t="n" s="8">
         <v>8152.0</v>
       </c>
+      <c r="AG303" t="n" s="8">
+        <v>8578.0</v>
+      </c>
+      <c r="AH303" t="n" s="8">
+        <v>9018.0</v>
+      </c>
+      <c r="AI303" t="n" s="8">
+        <v>9158.0</v>
+      </c>
+      <c r="AJ303"/>
     </row>
     <row r="304">
       <c r="A304" t="s" s="7">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B304" t="n" s="8">
         <v>6931.0</v>
@@ -31138,10 +34156,20 @@
       <c r="AF304" t="n" s="8">
         <v>8686.0</v>
       </c>
+      <c r="AG304" t="n" s="8">
+        <v>9008.0</v>
+      </c>
+      <c r="AH304" t="n" s="8">
+        <v>9379.0</v>
+      </c>
+      <c r="AI304" t="n" s="8">
+        <v>9469.0</v>
+      </c>
+      <c r="AJ304"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="7">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B305" t="n" s="10">
         <v>3.1</v>
@@ -31236,10 +34264,20 @@
       <c r="AF305" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG305" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH305" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI305" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ305"/>
     </row>
     <row r="306">
       <c r="A306" t="s" s="7">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B306" t="n" s="8">
         <v>1944.0</v>
@@ -31334,10 +34372,20 @@
       <c r="AF306" t="n" s="8">
         <v>4521.0</v>
       </c>
+      <c r="AG306" t="n" s="8">
+        <v>3028.0</v>
+      </c>
+      <c r="AH306" t="n" s="8">
+        <v>2402.0</v>
+      </c>
+      <c r="AI306" t="n" s="8">
+        <v>2358.0</v>
+      </c>
+      <c r="AJ306"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="7">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B307" t="n" s="8">
         <v>61212.0</v>
@@ -31432,10 +34480,20 @@
       <c r="AF307" t="n" s="8">
         <v>58089.0</v>
       </c>
+      <c r="AG307" t="n" s="8">
+        <v>60185.0</v>
+      </c>
+      <c r="AH307" t="n" s="8">
+        <v>62865.0</v>
+      </c>
+      <c r="AI307" t="n" s="8">
+        <v>63027.0</v>
+      </c>
+      <c r="AJ307"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="7">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B308" t="n" s="8">
         <v>63156.0</v>
@@ -31530,10 +34588,20 @@
       <c r="AF308" t="n" s="8">
         <v>62610.0</v>
       </c>
+      <c r="AG308" t="n" s="8">
+        <v>63213.0</v>
+      </c>
+      <c r="AH308" t="n" s="8">
+        <v>65267.0</v>
+      </c>
+      <c r="AI308" t="n" s="8">
+        <v>65385.0</v>
+      </c>
+      <c r="AJ308"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="7">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B309" t="n" s="10">
         <v>5.8</v>
@@ -31628,10 +34696,20 @@
       <c r="AF309" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG309" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH309" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI309" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ309"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="7">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B310" t="n" s="8">
         <v>1302.0</v>
@@ -31726,10 +34804,20 @@
       <c r="AF310" t="n" s="8">
         <v>1454.0</v>
       </c>
+      <c r="AG310" t="n" s="8">
+        <v>1184.0</v>
+      </c>
+      <c r="AH310" t="n" s="8">
+        <v>865.0</v>
+      </c>
+      <c r="AI310" t="n" s="8">
+        <v>779.0</v>
+      </c>
+      <c r="AJ310"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="7">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B311" t="n" s="8">
         <v>21122.0</v>
@@ -31824,10 +34912,20 @@
       <c r="AF311" t="n" s="8">
         <v>14656.0</v>
       </c>
+      <c r="AG311" t="n" s="8">
+        <v>15066.0</v>
+      </c>
+      <c r="AH311" t="n" s="8">
+        <v>16039.0</v>
+      </c>
+      <c r="AI311" t="n" s="8">
+        <v>16283.0</v>
+      </c>
+      <c r="AJ311"/>
     </row>
     <row r="312">
       <c r="A312" t="s" s="7">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B312" t="n" s="8">
         <v>22424.0</v>
@@ -31922,10 +35020,20 @@
       <c r="AF312" t="n" s="8">
         <v>16110.0</v>
       </c>
+      <c r="AG312" t="n" s="8">
+        <v>16250.0</v>
+      </c>
+      <c r="AH312" t="n" s="8">
+        <v>16904.0</v>
+      </c>
+      <c r="AI312" t="n" s="8">
+        <v>17062.0</v>
+      </c>
+      <c r="AJ312"/>
     </row>
     <row r="313">
       <c r="A313" t="s" s="7">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B313" t="n" s="10">
         <v>7.6</v>
@@ -32020,10 +35128,20 @@
       <c r="AF313" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG313" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH313" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI313" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ313"/>
     </row>
     <row r="314">
       <c r="A314" t="s" s="7">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B314" t="n" s="8">
         <v>3739.0</v>
@@ -32118,10 +35236,20 @@
       <c r="AF314" t="n" s="8">
         <v>4192.0</v>
       </c>
+      <c r="AG314" t="n" s="8">
+        <v>3626.0</v>
+      </c>
+      <c r="AH314" t="n" s="8">
+        <v>2675.0</v>
+      </c>
+      <c r="AI314" t="n" s="8">
+        <v>2396.0</v>
+      </c>
+      <c r="AJ314"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B315" t="n" s="8">
         <v>45500.0</v>
@@ -32216,10 +35344,20 @@
       <c r="AF315" t="n" s="8">
         <v>43916.0</v>
       </c>
+      <c r="AG315" t="n" s="8">
+        <v>44164.0</v>
+      </c>
+      <c r="AH315" t="n" s="8">
+        <v>45476.0</v>
+      </c>
+      <c r="AI315" t="n" s="8">
+        <v>45824.0</v>
+      </c>
+      <c r="AJ315"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="7">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B316" t="n" s="8">
         <v>49239.0</v>
@@ -32314,10 +35452,20 @@
       <c r="AF316" t="n" s="8">
         <v>48108.0</v>
       </c>
+      <c r="AG316" t="n" s="8">
+        <v>47790.0</v>
+      </c>
+      <c r="AH316" t="n" s="8">
+        <v>48151.0</v>
+      </c>
+      <c r="AI316" t="n" s="8">
+        <v>48220.0</v>
+      </c>
+      <c r="AJ316"/>
     </row>
     <row r="317">
       <c r="A317" t="s" s="7">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B317" t="n" s="10">
         <v>5.3</v>
@@ -32412,10 +35560,20 @@
       <c r="AF317" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG317" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH317" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI317" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ317"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="7">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B318" t="n" s="8">
         <v>2458.0</v>
@@ -32510,10 +35668,20 @@
       <c r="AF318" t="n" s="8">
         <v>3111.0</v>
       </c>
+      <c r="AG318" t="n" s="8">
+        <v>2152.0</v>
+      </c>
+      <c r="AH318" t="n" s="8">
+        <v>1659.0</v>
+      </c>
+      <c r="AI318" t="n" s="8">
+        <v>1566.0</v>
+      </c>
+      <c r="AJ318"/>
     </row>
     <row r="319">
       <c r="A319" t="s" s="7">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B319" t="n" s="8">
         <v>44285.0</v>
@@ -32608,10 +35776,20 @@
       <c r="AF319" t="n" s="8">
         <v>34901.0</v>
       </c>
+      <c r="AG319" t="n" s="8">
+        <v>36176.0</v>
+      </c>
+      <c r="AH319" t="n" s="8">
+        <v>37781.0</v>
+      </c>
+      <c r="AI319" t="n" s="8">
+        <v>37876.0</v>
+      </c>
+      <c r="AJ319"/>
     </row>
     <row r="320">
       <c r="A320" t="s" s="7">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B320" t="n" s="8">
         <v>46743.0</v>
@@ -32706,10 +35884,20 @@
       <c r="AF320" t="n" s="8">
         <v>38012.0</v>
       </c>
+      <c r="AG320" t="n" s="8">
+        <v>38328.0</v>
+      </c>
+      <c r="AH320" t="n" s="8">
+        <v>39440.0</v>
+      </c>
+      <c r="AI320" t="n" s="8">
+        <v>39442.0</v>
+      </c>
+      <c r="AJ320"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="7">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B321" t="n" s="10">
         <v>3.9</v>
@@ -32804,10 +35992,20 @@
       <c r="AF321" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG321" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH321" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI321" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ321"/>
     </row>
     <row r="322">
       <c r="A322" t="s" s="7">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B322" t="n" s="8">
         <v>2286.0</v>
@@ -32902,10 +36100,20 @@
       <c r="AF322" t="n" s="8">
         <v>4938.0</v>
       </c>
+      <c r="AG322" t="n" s="8">
+        <v>3279.0</v>
+      </c>
+      <c r="AH322" t="n" s="8">
+        <v>2478.0</v>
+      </c>
+      <c r="AI322" t="n" s="8">
+        <v>2335.0</v>
+      </c>
+      <c r="AJ322"/>
     </row>
     <row r="323">
       <c r="A323" t="s" s="7">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B323" t="n" s="8">
         <v>56271.0</v>
@@ -33000,10 +36208,20 @@
       <c r="AF323" t="n" s="8">
         <v>57911.0</v>
       </c>
+      <c r="AG323" t="n" s="8">
+        <v>61193.0</v>
+      </c>
+      <c r="AH323" t="n" s="8">
+        <v>65262.0</v>
+      </c>
+      <c r="AI323" t="n" s="8">
+        <v>66688.0</v>
+      </c>
+      <c r="AJ323"/>
     </row>
     <row r="324">
       <c r="A324" t="s" s="7">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B324" t="n" s="8">
         <v>58557.0</v>
@@ -33098,10 +36316,20 @@
       <c r="AF324" t="n" s="8">
         <v>62849.0</v>
       </c>
+      <c r="AG324" t="n" s="8">
+        <v>64472.0</v>
+      </c>
+      <c r="AH324" t="n" s="8">
+        <v>67740.0</v>
+      </c>
+      <c r="AI324" t="n" s="8">
+        <v>69023.0</v>
+      </c>
+      <c r="AJ324"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="7">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B325" t="n" s="10">
         <v>5.3</v>
@@ -33196,10 +36424,20 @@
       <c r="AF325" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG325" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH325" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI325" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ325"/>
     </row>
     <row r="326">
       <c r="A326" t="s" s="7">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B326" t="n" s="8">
         <v>1596.0</v>
@@ -33294,10 +36532,20 @@
       <c r="AF326" t="n" s="8">
         <v>2174.0</v>
       </c>
+      <c r="AG326" t="n" s="8">
+        <v>1558.0</v>
+      </c>
+      <c r="AH326" t="n" s="8">
+        <v>1185.0</v>
+      </c>
+      <c r="AI326" t="n" s="8">
+        <v>1125.0</v>
+      </c>
+      <c r="AJ326"/>
     </row>
     <row r="327">
       <c r="A327" t="s" s="7">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B327" t="n" s="8">
         <v>28750.0</v>
@@ -33392,10 +36640,20 @@
       <c r="AF327" t="n" s="8">
         <v>21499.0</v>
       </c>
+      <c r="AG327" t="n" s="8">
+        <v>22403.0</v>
+      </c>
+      <c r="AH327" t="n" s="8">
+        <v>23378.0</v>
+      </c>
+      <c r="AI327" t="n" s="8">
+        <v>23267.0</v>
+      </c>
+      <c r="AJ327"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="7">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B328" t="n" s="8">
         <v>30346.0</v>
@@ -33490,10 +36748,20 @@
       <c r="AF328" t="n" s="8">
         <v>23673.0</v>
       </c>
+      <c r="AG328" t="n" s="8">
+        <v>23961.0</v>
+      </c>
+      <c r="AH328" t="n" s="8">
+        <v>24563.0</v>
+      </c>
+      <c r="AI328" t="n" s="8">
+        <v>24392.0</v>
+      </c>
+      <c r="AJ328"/>
     </row>
     <row r="329">
       <c r="A329" t="s" s="7">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B329" t="n" s="10">
         <v>4.6</v>
@@ -33588,10 +36856,20 @@
       <c r="AF329" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG329" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH329" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI329" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ329"/>
     </row>
     <row r="330">
       <c r="A330" t="s" s="7">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B330" t="n" s="8">
         <v>1085.0</v>
@@ -33686,10 +36964,20 @@
       <c r="AF330" t="n" s="8">
         <v>1583.0</v>
       </c>
+      <c r="AG330" t="n" s="8">
+        <v>1277.0</v>
+      </c>
+      <c r="AH330" t="n" s="8">
+        <v>1068.0</v>
+      </c>
+      <c r="AI330" t="n" s="8">
+        <v>993.0</v>
+      </c>
+      <c r="AJ330"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="7">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B331" t="n" s="8">
         <v>22557.0</v>
@@ -33784,10 +37072,20 @@
       <c r="AF331" t="n" s="8">
         <v>25874.0</v>
       </c>
+      <c r="AG331" t="n" s="8">
+        <v>26331.0</v>
+      </c>
+      <c r="AH331" t="n" s="8">
+        <v>27197.0</v>
+      </c>
+      <c r="AI331" t="n" s="8">
+        <v>26985.0</v>
+      </c>
+      <c r="AJ331"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="7">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B332" t="n" s="8">
         <v>23642.0</v>
@@ -33882,10 +37180,20 @@
       <c r="AF332" t="n" s="8">
         <v>27457.0</v>
       </c>
+      <c r="AG332" t="n" s="8">
+        <v>27608.0</v>
+      </c>
+      <c r="AH332" t="n" s="8">
+        <v>28265.0</v>
+      </c>
+      <c r="AI332" t="n" s="8">
+        <v>27978.0</v>
+      </c>
+      <c r="AJ332"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="7">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B333" t="n" s="10">
         <v>8.7</v>
@@ -33980,10 +37288,20 @@
       <c r="AF333" t="n" s="10">
         <v>11.9</v>
       </c>
+      <c r="AG333" t="n" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="AH333" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AI333" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AJ333"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="7">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B334" t="n" s="8">
         <v>1442.0</v>
@@ -34078,10 +37396,20 @@
       <c r="AF334" t="n" s="8">
         <v>1306.0</v>
       </c>
+      <c r="AG334" t="n" s="8">
+        <v>1043.0</v>
+      </c>
+      <c r="AH334" t="n" s="8">
+        <v>722.0</v>
+      </c>
+      <c r="AI334" t="n" s="8">
+        <v>708.0</v>
+      </c>
+      <c r="AJ334"/>
     </row>
     <row r="335">
       <c r="A335" t="s" s="7">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B335" t="n" s="8">
         <v>15169.0</v>
@@ -34176,10 +37504,20 @@
       <c r="AF335" t="n" s="8">
         <v>9675.0</v>
       </c>
+      <c r="AG335" t="n" s="8">
+        <v>9963.0</v>
+      </c>
+      <c r="AH335" t="n" s="8">
+        <v>10442.0</v>
+      </c>
+      <c r="AI335" t="n" s="8">
+        <v>10518.0</v>
+      </c>
+      <c r="AJ335"/>
     </row>
     <row r="336">
       <c r="A336" t="s" s="7">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B336" t="n" s="8">
         <v>16611.0</v>
@@ -34274,10 +37612,20 @@
       <c r="AF336" t="n" s="8">
         <v>10981.0</v>
       </c>
+      <c r="AG336" t="n" s="8">
+        <v>11006.0</v>
+      </c>
+      <c r="AH336" t="n" s="8">
+        <v>11164.0</v>
+      </c>
+      <c r="AI336" t="n" s="8">
+        <v>11226.0</v>
+      </c>
+      <c r="AJ336"/>
     </row>
     <row r="337">
       <c r="A337" t="s" s="7">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B337" t="n" s="10">
         <v>4.7</v>
@@ -34372,10 +37720,20 @@
       <c r="AF337" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG337" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH337" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI337" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ337"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="7">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B338" t="n" s="8">
         <v>1325.0</v>
@@ -34470,10 +37828,20 @@
       <c r="AF338" t="n" s="8">
         <v>1790.0</v>
       </c>
+      <c r="AG338" t="n" s="8">
+        <v>1307.0</v>
+      </c>
+      <c r="AH338" t="n" s="8">
+        <v>1026.0</v>
+      </c>
+      <c r="AI338" t="n" s="8">
+        <v>970.0</v>
+      </c>
+      <c r="AJ338"/>
     </row>
     <row r="339">
       <c r="A339" t="s" s="7">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B339" t="n" s="8">
         <v>27088.0</v>
@@ -34568,10 +37936,20 @@
       <c r="AF339" t="n" s="8">
         <v>26980.0</v>
       </c>
+      <c r="AG339" t="n" s="8">
+        <v>28072.0</v>
+      </c>
+      <c r="AH339" t="n" s="8">
+        <v>30044.0</v>
+      </c>
+      <c r="AI339" t="n" s="8">
+        <v>31119.0</v>
+      </c>
+      <c r="AJ339"/>
     </row>
     <row r="340">
       <c r="A340" t="s" s="7">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B340" t="n" s="8">
         <v>28413.0</v>
@@ -34666,10 +38044,20 @@
       <c r="AF340" t="n" s="8">
         <v>28770.0</v>
       </c>
+      <c r="AG340" t="n" s="8">
+        <v>29379.0</v>
+      </c>
+      <c r="AH340" t="n" s="8">
+        <v>31070.0</v>
+      </c>
+      <c r="AI340" t="n" s="8">
+        <v>32089.0</v>
+      </c>
+      <c r="AJ340"/>
     </row>
     <row r="341">
       <c r="A341" t="s" s="7">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B341" t="n" s="10">
         <v>4.2</v>
@@ -34764,10 +38152,20 @@
       <c r="AF341" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG341" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH341" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI341" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ341"/>
     </row>
     <row r="342">
       <c r="A342" t="s" s="7">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B342" t="n" s="8">
         <v>861.0</v>
@@ -34862,10 +38260,20 @@
       <c r="AF342" t="n" s="8">
         <v>1291.0</v>
       </c>
+      <c r="AG342" t="n" s="8">
+        <v>905.0</v>
+      </c>
+      <c r="AH342" t="n" s="8">
+        <v>731.0</v>
+      </c>
+      <c r="AI342" t="n" s="8">
+        <v>671.0</v>
+      </c>
+      <c r="AJ342"/>
     </row>
     <row r="343">
       <c r="A343" t="s" s="7">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B343" t="n" s="8">
         <v>19614.0</v>
@@ -34960,10 +38368,20 @@
       <c r="AF343" t="n" s="8">
         <v>19155.0</v>
       </c>
+      <c r="AG343" t="n" s="8">
+        <v>19959.0</v>
+      </c>
+      <c r="AH343" t="n" s="8">
+        <v>20902.0</v>
+      </c>
+      <c r="AI343" t="n" s="8">
+        <v>20942.0</v>
+      </c>
+      <c r="AJ343"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="7">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B344" t="n" s="8">
         <v>20475.0</v>
@@ -35058,10 +38476,20 @@
       <c r="AF344" t="n" s="8">
         <v>20446.0</v>
       </c>
+      <c r="AG344" t="n" s="8">
+        <v>20864.0</v>
+      </c>
+      <c r="AH344" t="n" s="8">
+        <v>21633.0</v>
+      </c>
+      <c r="AI344" t="n" s="8">
+        <v>21613.0</v>
+      </c>
+      <c r="AJ344"/>
     </row>
     <row r="345">
       <c r="A345" t="s" s="7">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B345" t="n" s="10">
         <v>4.5</v>
@@ -35156,10 +38584,20 @@
       <c r="AF345" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG345" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH345" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI345" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ345"/>
     </row>
     <row r="346">
       <c r="A346" t="s" s="7">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B346" t="n" s="8">
         <v>1534.0</v>
@@ -35254,10 +38692,20 @@
       <c r="AF346" t="n" s="8">
         <v>2139.0</v>
       </c>
+      <c r="AG346" t="n" s="8">
+        <v>1421.0</v>
+      </c>
+      <c r="AH346" t="n" s="8">
+        <v>1137.0</v>
+      </c>
+      <c r="AI346" t="n" s="8">
+        <v>1055.0</v>
+      </c>
+      <c r="AJ346"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="7">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B347" t="n" s="8">
         <v>32239.0</v>
@@ -35352,10 +38800,20 @@
       <c r="AF347" t="n" s="8">
         <v>29471.0</v>
       </c>
+      <c r="AG347" t="n" s="8">
+        <v>30390.0</v>
+      </c>
+      <c r="AH347" t="n" s="8">
+        <v>31651.0</v>
+      </c>
+      <c r="AI347" t="n" s="8">
+        <v>32228.0</v>
+      </c>
+      <c r="AJ347"/>
     </row>
     <row r="348">
       <c r="A348" t="s" s="7">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B348" t="n" s="8">
         <v>33773.0</v>
@@ -35450,10 +38908,20 @@
       <c r="AF348" t="n" s="8">
         <v>31610.0</v>
       </c>
+      <c r="AG348" t="n" s="8">
+        <v>31811.0</v>
+      </c>
+      <c r="AH348" t="n" s="8">
+        <v>32788.0</v>
+      </c>
+      <c r="AI348" t="n" s="8">
+        <v>33283.0</v>
+      </c>
+      <c r="AJ348"/>
     </row>
     <row r="349">
       <c r="A349" t="s" s="7">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B349" t="n" s="10">
         <v>12.5</v>
@@ -35548,10 +39016,20 @@
       <c r="AF349" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG349" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH349" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI349" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ349"/>
     </row>
     <row r="350">
       <c r="A350" t="s" s="7">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B350" t="n" s="8">
         <v>724.0</v>
@@ -35646,10 +39124,20 @@
       <c r="AF350" t="n" s="8">
         <v>562.0</v>
       </c>
+      <c r="AG350" t="n" s="8">
+        <v>312.0</v>
+      </c>
+      <c r="AH350" t="n" s="8">
+        <v>235.0</v>
+      </c>
+      <c r="AI350" t="n" s="8">
+        <v>209.0</v>
+      </c>
+      <c r="AJ350"/>
     </row>
     <row r="351">
       <c r="A351" t="s" s="7">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B351" t="n" s="8">
         <v>5084.0</v>
@@ -35744,10 +39232,20 @@
       <c r="AF351" t="n" s="8">
         <v>6157.0</v>
       </c>
+      <c r="AG351" t="n" s="8">
+        <v>6457.0</v>
+      </c>
+      <c r="AH351" t="n" s="8">
+        <v>6921.0</v>
+      </c>
+      <c r="AI351" t="n" s="8">
+        <v>6910.0</v>
+      </c>
+      <c r="AJ351"/>
     </row>
     <row r="352">
       <c r="A352" t="s" s="7">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B352" t="n" s="8">
         <v>5808.0</v>
@@ -35842,10 +39340,20 @@
       <c r="AF352" t="n" s="8">
         <v>6719.0</v>
       </c>
+      <c r="AG352" t="n" s="8">
+        <v>6769.0</v>
+      </c>
+      <c r="AH352" t="n" s="8">
+        <v>7156.0</v>
+      </c>
+      <c r="AI352" t="n" s="8">
+        <v>7119.0</v>
+      </c>
+      <c r="AJ352"/>
     </row>
     <row r="353">
       <c r="A353" t="s" s="7">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B353" t="n" s="10">
         <v>3.5</v>
@@ -35940,10 +39448,20 @@
       <c r="AF353" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG353" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH353" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI353" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ353"/>
     </row>
     <row r="354">
       <c r="A354" t="s" s="7">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B354" t="n" s="8">
         <v>415.0</v>
@@ -36038,10 +39556,20 @@
       <c r="AF354" t="n" s="8">
         <v>829.0</v>
       </c>
+      <c r="AG354" t="n" s="8">
+        <v>593.0</v>
+      </c>
+      <c r="AH354" t="n" s="8">
+        <v>512.0</v>
+      </c>
+      <c r="AI354" t="n" s="8">
+        <v>481.0</v>
+      </c>
+      <c r="AJ354"/>
     </row>
     <row r="355">
       <c r="A355" t="s" s="7">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B355" t="n" s="8">
         <v>11313.0</v>
@@ -36136,10 +39664,20 @@
       <c r="AF355" t="n" s="8">
         <v>12875.0</v>
       </c>
+      <c r="AG355" t="n" s="8">
+        <v>13493.0</v>
+      </c>
+      <c r="AH355" t="n" s="8">
+        <v>14169.0</v>
+      </c>
+      <c r="AI355" t="n" s="8">
+        <v>14422.0</v>
+      </c>
+      <c r="AJ355"/>
     </row>
     <row r="356">
       <c r="A356" t="s" s="7">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B356" t="n" s="8">
         <v>11728.0</v>
@@ -36234,10 +39772,20 @@
       <c r="AF356" t="n" s="8">
         <v>13704.0</v>
       </c>
+      <c r="AG356" t="n" s="8">
+        <v>14086.0</v>
+      </c>
+      <c r="AH356" t="n" s="8">
+        <v>14681.0</v>
+      </c>
+      <c r="AI356" t="n" s="8">
+        <v>14903.0</v>
+      </c>
+      <c r="AJ356"/>
     </row>
     <row r="357">
       <c r="A357" t="s" s="7">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B357" t="n" s="10">
         <v>10.1</v>
@@ -36332,10 +39880,20 @@
       <c r="AF357" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG357" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH357" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI357" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ357"/>
     </row>
     <row r="358">
       <c r="A358" t="s" s="7">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B358" t="n" s="8">
         <v>190.0</v>
@@ -36430,10 +39988,20 @@
       <c r="AF358" t="n" s="8">
         <v>113.0</v>
       </c>
+      <c r="AG358" t="n" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="AH358" t="n" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="AI358" t="n" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="AJ358"/>
     </row>
     <row r="359">
       <c r="A359" t="s" s="7">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B359" t="n" s="8">
         <v>1684.0</v>
@@ -36528,10 +40096,20 @@
       <c r="AF359" t="n" s="8">
         <v>1117.0</v>
       </c>
+      <c r="AG359" t="n" s="8">
+        <v>1190.0</v>
+      </c>
+      <c r="AH359" t="n" s="8">
+        <v>1240.0</v>
+      </c>
+      <c r="AI359" t="n" s="8">
+        <v>1258.0</v>
+      </c>
+      <c r="AJ359"/>
     </row>
     <row r="360">
       <c r="A360" t="s" s="7">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B360" t="n" s="8">
         <v>1874.0</v>
@@ -36626,10 +40204,20 @@
       <c r="AF360" t="n" s="8">
         <v>1230.0</v>
       </c>
+      <c r="AG360" t="n" s="8">
+        <v>1279.0</v>
+      </c>
+      <c r="AH360" t="n" s="8">
+        <v>1309.0</v>
+      </c>
+      <c r="AI360" t="n" s="8">
+        <v>1325.0</v>
+      </c>
+      <c r="AJ360"/>
     </row>
     <row r="361">
       <c r="A361" t="s" s="7">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B361" t="n" s="10">
         <v>2.8</v>
@@ -36724,10 +40312,20 @@
       <c r="AF361" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG361" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH361" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI361" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ361"/>
     </row>
     <row r="362">
       <c r="A362" t="s" s="7">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B362" t="n" s="8">
         <v>1303.0</v>
@@ -36822,10 +40420,20 @@
       <c r="AF362" t="n" s="8">
         <v>6963.0</v>
       </c>
+      <c r="AG362" t="n" s="8">
+        <v>4899.0</v>
+      </c>
+      <c r="AH362" t="n" s="8">
+        <v>4141.0</v>
+      </c>
+      <c r="AI362" t="n" s="8">
+        <v>3982.0</v>
+      </c>
+      <c r="AJ362"/>
     </row>
     <row r="363">
       <c r="A363" t="s" s="7">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B363" t="n" s="8">
         <v>45043.0</v>
@@ -36920,10 +40528,20 @@
       <c r="AF363" t="n" s="8">
         <v>111959.0</v>
       </c>
+      <c r="AG363" t="n" s="8">
+        <v>118322.0</v>
+      </c>
+      <c r="AH363" t="n" s="8">
+        <v>126174.0</v>
+      </c>
+      <c r="AI363" t="n" s="8">
+        <v>128911.0</v>
+      </c>
+      <c r="AJ363"/>
     </row>
     <row r="364">
       <c r="A364" t="s" s="7">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B364" t="n" s="8">
         <v>46346.0</v>
@@ -37018,10 +40636,20 @@
       <c r="AF364" t="n" s="8">
         <v>118922.0</v>
       </c>
+      <c r="AG364" t="n" s="8">
+        <v>123221.0</v>
+      </c>
+      <c r="AH364" t="n" s="8">
+        <v>130315.0</v>
+      </c>
+      <c r="AI364" t="n" s="8">
+        <v>132893.0</v>
+      </c>
+      <c r="AJ364"/>
     </row>
     <row r="365">
       <c r="A365" t="s" s="7">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B365" t="n" s="10">
         <v>8.1</v>
@@ -37116,10 +40744,20 @@
       <c r="AF365" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG365" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AH365" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI365" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ365"/>
     </row>
     <row r="366">
       <c r="A366" t="s" s="7">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B366" t="n" s="8">
         <v>1650.0</v>
@@ -37214,10 +40852,20 @@
       <c r="AF366" t="n" s="8">
         <v>1645.0</v>
       </c>
+      <c r="AG366" t="n" s="8">
+        <v>1313.0</v>
+      </c>
+      <c r="AH366" t="n" s="8">
+        <v>987.0</v>
+      </c>
+      <c r="AI366" t="n" s="8">
+        <v>902.0</v>
+      </c>
+      <c r="AJ366"/>
     </row>
     <row r="367">
       <c r="A367" t="s" s="7">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B367" t="n" s="8">
         <v>18713.0</v>
@@ -37312,10 +40960,20 @@
       <c r="AF367" t="n" s="8">
         <v>14850.0</v>
       </c>
+      <c r="AG367" t="n" s="8">
+        <v>15263.0</v>
+      </c>
+      <c r="AH367" t="n" s="8">
+        <v>15806.0</v>
+      </c>
+      <c r="AI367" t="n" s="8">
+        <v>15850.0</v>
+      </c>
+      <c r="AJ367"/>
     </row>
     <row r="368">
       <c r="A368" t="s" s="7">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B368" t="n" s="8">
         <v>20363.0</v>
@@ -37410,10 +41068,20 @@
       <c r="AF368" t="n" s="8">
         <v>16495.0</v>
       </c>
+      <c r="AG368" t="n" s="8">
+        <v>16576.0</v>
+      </c>
+      <c r="AH368" t="n" s="8">
+        <v>16793.0</v>
+      </c>
+      <c r="AI368" t="n" s="8">
+        <v>16752.0</v>
+      </c>
+      <c r="AJ368"/>
     </row>
     <row r="369">
       <c r="A369" t="s" s="7">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B369" t="n" s="10">
         <v>2.5</v>
@@ -37508,10 +41176,20 @@
       <c r="AF369" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG369" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH369" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI369" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ369"/>
     </row>
     <row r="370">
       <c r="A370" t="s" s="7">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B370" t="n" s="8">
         <v>6432.0</v>
@@ -37606,10 +41284,20 @@
       <c r="AF370" t="n" s="8">
         <v>36143.0</v>
       </c>
+      <c r="AG370" t="n" s="8">
+        <v>24077.0</v>
+      </c>
+      <c r="AH370" t="n" s="8">
+        <v>19531.0</v>
+      </c>
+      <c r="AI370" t="n" s="8">
+        <v>19470.0</v>
+      </c>
+      <c r="AJ370"/>
     </row>
     <row r="371">
       <c r="A371" t="s" s="7">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B371" t="n" s="8">
         <v>248247.0</v>
@@ -37704,10 +41392,20 @@
       <c r="AF371" t="n" s="8">
         <v>534103.0</v>
       </c>
+      <c r="AG371" t="n" s="8">
+        <v>568603.0</v>
+      </c>
+      <c r="AH371" t="n" s="8">
+        <v>611634.0</v>
+      </c>
+      <c r="AI371" t="n" s="8">
+        <v>629344.0</v>
+      </c>
+      <c r="AJ371"/>
     </row>
     <row r="372">
       <c r="A372" t="s" s="7">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B372" t="n" s="8">
         <v>254679.0</v>
@@ -37802,10 +41500,20 @@
       <c r="AF372" t="n" s="8">
         <v>570246.0</v>
       </c>
+      <c r="AG372" t="n" s="8">
+        <v>592680.0</v>
+      </c>
+      <c r="AH372" t="n" s="8">
+        <v>631165.0</v>
+      </c>
+      <c r="AI372" t="n" s="8">
+        <v>648814.0</v>
+      </c>
+      <c r="AJ372"/>
     </row>
     <row r="373">
       <c r="A373" t="s" s="7">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B373" t="n" s="10">
         <v>7.0</v>
@@ -37900,10 +41608,20 @@
       <c r="AF373" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG373" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AH373" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI373" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ373"/>
     </row>
     <row r="374">
       <c r="A374" t="s" s="7">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B374" t="n" s="8">
         <v>524.0</v>
@@ -37998,10 +41716,20 @@
       <c r="AF374" t="n" s="8">
         <v>609.0</v>
       </c>
+      <c r="AG374" t="n" s="8">
+        <v>495.0</v>
+      </c>
+      <c r="AH374" t="n" s="8">
+        <v>408.0</v>
+      </c>
+      <c r="AI374" t="n" s="8">
+        <v>338.0</v>
+      </c>
+      <c r="AJ374"/>
     </row>
     <row r="375">
       <c r="A375" t="s" s="7">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B375" t="n" s="8">
         <v>6944.0</v>
@@ -38096,10 +41824,20 @@
       <c r="AF375" t="n" s="8">
         <v>5693.0</v>
       </c>
+      <c r="AG375" t="n" s="8">
+        <v>5856.0</v>
+      </c>
+      <c r="AH375" t="n" s="8">
+        <v>5974.0</v>
+      </c>
+      <c r="AI375" t="n" s="8">
+        <v>5956.0</v>
+      </c>
+      <c r="AJ375"/>
     </row>
     <row r="376">
       <c r="A376" t="s" s="7">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B376" t="n" s="8">
         <v>7468.0</v>
@@ -38194,10 +41932,20 @@
       <c r="AF376" t="n" s="8">
         <v>6302.0</v>
       </c>
+      <c r="AG376" t="n" s="8">
+        <v>6351.0</v>
+      </c>
+      <c r="AH376" t="n" s="8">
+        <v>6382.0</v>
+      </c>
+      <c r="AI376" t="n" s="8">
+        <v>6294.0</v>
+      </c>
+      <c r="AJ376"/>
     </row>
     <row r="377">
       <c r="A377" t="s" s="7">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B377" t="n" s="10">
         <v>4.2</v>
@@ -38292,10 +42040,20 @@
       <c r="AF377" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG377" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH377" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI377" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ377"/>
     </row>
     <row r="378">
       <c r="A378" t="s" s="7">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B378" t="n" s="8">
         <v>258.0</v>
@@ -38390,10 +42148,20 @@
       <c r="AF378" t="n" s="8">
         <v>340.0</v>
       </c>
+      <c r="AG378" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AH378" t="n" s="8">
+        <v>223.0</v>
+      </c>
+      <c r="AI378" t="n" s="8">
+        <v>207.0</v>
+      </c>
+      <c r="AJ378"/>
     </row>
     <row r="379">
       <c r="A379" t="s" s="7">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B379" t="n" s="8">
         <v>5916.0</v>
@@ -38488,10 +42256,20 @@
       <c r="AF379" t="n" s="8">
         <v>3895.0</v>
       </c>
+      <c r="AG379" t="n" s="8">
+        <v>3961.0</v>
+      </c>
+      <c r="AH379" t="n" s="8">
+        <v>4127.0</v>
+      </c>
+      <c r="AI379" t="n" s="8">
+        <v>4114.0</v>
+      </c>
+      <c r="AJ379"/>
     </row>
     <row r="380">
       <c r="A380" t="s" s="7">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B380" t="n" s="8">
         <v>6174.0</v>
@@ -38586,10 +42364,20 @@
       <c r="AF380" t="n" s="8">
         <v>4235.0</v>
       </c>
+      <c r="AG380" t="n" s="8">
+        <v>4257.0</v>
+      </c>
+      <c r="AH380" t="n" s="8">
+        <v>4350.0</v>
+      </c>
+      <c r="AI380" t="n" s="8">
+        <v>4321.0</v>
+      </c>
+      <c r="AJ380"/>
     </row>
     <row r="381">
       <c r="A381" t="s" s="7">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B381" t="n" s="10">
         <v>4.4</v>
@@ -38684,10 +42472,20 @@
       <c r="AF381" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG381" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH381" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI381" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ381"/>
     </row>
     <row r="382">
       <c r="A382" t="s" s="7">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B382" t="n" s="8">
         <v>880.0</v>
@@ -38782,10 +42580,20 @@
       <c r="AF382" t="n" s="8">
         <v>1662.0</v>
       </c>
+      <c r="AG382" t="n" s="8">
+        <v>1069.0</v>
+      </c>
+      <c r="AH382" t="n" s="8">
+        <v>962.0</v>
+      </c>
+      <c r="AI382" t="n" s="8">
+        <v>899.0</v>
+      </c>
+      <c r="AJ382"/>
     </row>
     <row r="383">
       <c r="A383" t="s" s="7">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B383" t="n" s="8">
         <v>18916.0</v>
@@ -38880,10 +42688,20 @@
       <c r="AF383" t="n" s="8">
         <v>25317.0</v>
       </c>
+      <c r="AG383" t="n" s="8">
+        <v>27041.0</v>
+      </c>
+      <c r="AH383" t="n" s="8">
+        <v>28374.0</v>
+      </c>
+      <c r="AI383" t="n" s="8">
+        <v>29070.0</v>
+      </c>
+      <c r="AJ383"/>
     </row>
     <row r="384">
       <c r="A384" t="s" s="7">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B384" t="n" s="8">
         <v>19796.0</v>
@@ -38978,10 +42796,20 @@
       <c r="AF384" t="n" s="8">
         <v>26979.0</v>
       </c>
+      <c r="AG384" t="n" s="8">
+        <v>28110.0</v>
+      </c>
+      <c r="AH384" t="n" s="8">
+        <v>29336.0</v>
+      </c>
+      <c r="AI384" t="n" s="8">
+        <v>29969.0</v>
+      </c>
+      <c r="AJ384"/>
     </row>
     <row r="385">
       <c r="A385" t="s" s="7">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B385" t="n" s="10">
         <v>4.6</v>
@@ -39076,10 +42904,20 @@
       <c r="AF385" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG385" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH385" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI385" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ385"/>
     </row>
     <row r="386">
       <c r="A386" t="s" s="7">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B386" t="n" s="8">
         <v>2192.0</v>
@@ -39174,10 +43012,20 @@
       <c r="AF386" t="n" s="8">
         <v>3131.0</v>
       </c>
+      <c r="AG386" t="n" s="8">
+        <v>2585.0</v>
+      </c>
+      <c r="AH386" t="n" s="8">
+        <v>2076.0</v>
+      </c>
+      <c r="AI386" t="n" s="8">
+        <v>1927.0</v>
+      </c>
+      <c r="AJ386"/>
     </row>
     <row r="387">
       <c r="A387" t="s" s="7">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B387" t="n" s="8">
         <v>45836.0</v>
@@ -39272,10 +43120,20 @@
       <c r="AF387" t="n" s="8">
         <v>46394.0</v>
       </c>
+      <c r="AG387" t="n" s="8">
+        <v>47598.0</v>
+      </c>
+      <c r="AH387" t="n" s="8">
+        <v>48770.0</v>
+      </c>
+      <c r="AI387" t="n" s="8">
+        <v>49551.0</v>
+      </c>
+      <c r="AJ387"/>
     </row>
     <row r="388">
       <c r="A388" t="s" s="7">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B388" t="n" s="8">
         <v>48028.0</v>
@@ -39370,10 +43228,20 @@
       <c r="AF388" t="n" s="8">
         <v>49525.0</v>
       </c>
+      <c r="AG388" t="n" s="8">
+        <v>50183.0</v>
+      </c>
+      <c r="AH388" t="n" s="8">
+        <v>50846.0</v>
+      </c>
+      <c r="AI388" t="n" s="8">
+        <v>51478.0</v>
+      </c>
+      <c r="AJ388"/>
     </row>
     <row r="389">
       <c r="A389" t="s" s="7">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B389" t="n" s="10">
         <v>3.8</v>
@@ -39468,10 +43336,20 @@
       <c r="AF389" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG389" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH389" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI389" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ389"/>
     </row>
     <row r="390">
       <c r="A390" t="s" s="7">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B390" t="n" s="8">
         <v>1221.0</v>
@@ -39566,10 +43444,20 @@
       <c r="AF390" t="n" s="8">
         <v>1845.0</v>
       </c>
+      <c r="AG390" t="n" s="8">
+        <v>1307.0</v>
+      </c>
+      <c r="AH390" t="n" s="8">
+        <v>1052.0</v>
+      </c>
+      <c r="AI390" t="n" s="8">
+        <v>981.0</v>
+      </c>
+      <c r="AJ390"/>
     </row>
     <row r="391">
       <c r="A391" t="s" s="7">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B391" t="n" s="8">
         <v>30586.0</v>
@@ -39664,10 +43552,20 @@
       <c r="AF391" t="n" s="8">
         <v>25530.0</v>
       </c>
+      <c r="AG391" t="n" s="8">
+        <v>25634.0</v>
+      </c>
+      <c r="AH391" t="n" s="8">
+        <v>25910.0</v>
+      </c>
+      <c r="AI391" t="n" s="8">
+        <v>25352.0</v>
+      </c>
+      <c r="AJ391"/>
     </row>
     <row r="392">
       <c r="A392" t="s" s="7">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B392" t="n" s="8">
         <v>31807.0</v>
@@ -39762,10 +43660,20 @@
       <c r="AF392" t="n" s="8">
         <v>27375.0</v>
       </c>
+      <c r="AG392" t="n" s="8">
+        <v>26941.0</v>
+      </c>
+      <c r="AH392" t="n" s="8">
+        <v>26962.0</v>
+      </c>
+      <c r="AI392" t="n" s="8">
+        <v>26333.0</v>
+      </c>
+      <c r="AJ392"/>
     </row>
     <row r="393">
       <c r="A393" t="s" s="7">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B393" t="n" s="10">
         <v>7.9</v>
@@ -39860,10 +43768,20 @@
       <c r="AF393" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG393" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH393" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI393" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ393"/>
     </row>
     <row r="394">
       <c r="A394" t="s" s="7">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B394" t="n" s="8">
         <v>2803.0</v>
@@ -39958,10 +43876,20 @@
       <c r="AF394" t="n" s="8">
         <v>2924.0</v>
       </c>
+      <c r="AG394" t="n" s="8">
+        <v>2250.0</v>
+      </c>
+      <c r="AH394" t="n" s="8">
+        <v>1745.0</v>
+      </c>
+      <c r="AI394" t="n" s="8">
+        <v>1678.0</v>
+      </c>
+      <c r="AJ394"/>
     </row>
     <row r="395">
       <c r="A395" t="s" s="7">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B395" t="n" s="8">
         <v>32460.0</v>
@@ -40056,10 +43984,20 @@
       <c r="AF395" t="n" s="8">
         <v>30543.0</v>
       </c>
+      <c r="AG395" t="n" s="8">
+        <v>30980.0</v>
+      </c>
+      <c r="AH395" t="n" s="8">
+        <v>31933.0</v>
+      </c>
+      <c r="AI395" t="n" s="8">
+        <v>32264.0</v>
+      </c>
+      <c r="AJ395"/>
     </row>
     <row r="396">
       <c r="A396" t="s" s="7">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B396" t="n" s="8">
         <v>35263.0</v>
@@ -40154,10 +44092,20 @@
       <c r="AF396" t="n" s="8">
         <v>33467.0</v>
       </c>
+      <c r="AG396" t="n" s="8">
+        <v>33230.0</v>
+      </c>
+      <c r="AH396" t="n" s="8">
+        <v>33678.0</v>
+      </c>
+      <c r="AI396" t="n" s="8">
+        <v>33942.0</v>
+      </c>
+      <c r="AJ396"/>
     </row>
     <row r="397">
       <c r="A397" t="s" s="7">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B397" t="n" s="10">
         <v>4.5</v>
@@ -40252,10 +44200,20 @@
       <c r="AF397" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG397" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH397" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI397" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ397"/>
     </row>
     <row r="398">
       <c r="A398" t="s" s="7">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B398" t="n" s="8">
         <v>741.0</v>
@@ -40350,10 +44308,20 @@
       <c r="AF398" t="n" s="8">
         <v>1173.0</v>
       </c>
+      <c r="AG398" t="n" s="8">
+        <v>737.0</v>
+      </c>
+      <c r="AH398" t="n" s="8">
+        <v>595.0</v>
+      </c>
+      <c r="AI398" t="n" s="8">
+        <v>554.0</v>
+      </c>
+      <c r="AJ398"/>
     </row>
     <row r="399">
       <c r="A399" t="s" s="7">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B399" t="n" s="8">
         <v>15713.0</v>
@@ -40448,10 +44416,20 @@
       <c r="AF399" t="n" s="8">
         <v>15610.0</v>
       </c>
+      <c r="AG399" t="n" s="8">
+        <v>16237.0</v>
+      </c>
+      <c r="AH399" t="n" s="8">
+        <v>17019.0</v>
+      </c>
+      <c r="AI399" t="n" s="8">
+        <v>17054.0</v>
+      </c>
+      <c r="AJ399"/>
     </row>
     <row r="400">
       <c r="A400" t="s" s="7">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B400" t="n" s="8">
         <v>16454.0</v>
@@ -40546,10 +44524,20 @@
       <c r="AF400" t="n" s="8">
         <v>16783.0</v>
       </c>
+      <c r="AG400" t="n" s="8">
+        <v>16974.0</v>
+      </c>
+      <c r="AH400" t="n" s="8">
+        <v>17614.0</v>
+      </c>
+      <c r="AI400" t="n" s="8">
+        <v>17608.0</v>
+      </c>
+      <c r="AJ400"/>
     </row>
     <row r="401">
       <c r="A401" t="s" s="7">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B401" t="n" s="10">
         <v>7.7</v>
@@ -40644,10 +44632,20 @@
       <c r="AF401" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG401" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH401" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI401" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ401"/>
     </row>
     <row r="402">
       <c r="A402" t="s" s="7">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B402" t="n" s="8">
         <v>520.0</v>
@@ -40742,10 +44740,20 @@
       <c r="AF402" t="n" s="8">
         <v>516.0</v>
       </c>
+      <c r="AG402" t="n" s="8">
+        <v>351.0</v>
+      </c>
+      <c r="AH402" t="n" s="8">
+        <v>297.0</v>
+      </c>
+      <c r="AI402" t="n" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="AJ402"/>
     </row>
     <row r="403">
       <c r="A403" t="s" s="7">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B403" t="n" s="8">
         <v>6201.0</v>
@@ -40840,10 +44848,20 @@
       <c r="AF403" t="n" s="8">
         <v>7374.0</v>
       </c>
+      <c r="AG403" t="n" s="8">
+        <v>7606.0</v>
+      </c>
+      <c r="AH403" t="n" s="8">
+        <v>7965.0</v>
+      </c>
+      <c r="AI403" t="n" s="8">
+        <v>8110.0</v>
+      </c>
+      <c r="AJ403"/>
     </row>
     <row r="404">
       <c r="A404" t="s" s="7">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B404" t="n" s="8">
         <v>6721.0</v>
@@ -40938,6 +44956,16 @@
       <c r="AF404" t="n" s="8">
         <v>7890.0</v>
       </c>
+      <c r="AG404" t="n" s="8">
+        <v>7957.0</v>
+      </c>
+      <c r="AH404" t="n" s="8">
+        <v>8262.0</v>
+      </c>
+      <c r="AI404" t="n" s="8">
+        <v>8371.0</v>
+      </c>
+      <c r="AJ404"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -40948,7 +44976,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:50:54 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:57:08 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
